--- a/FantaSoccer/MyModule/Bundesliga/xG_away_all_14.xlsx
+++ b/FantaSoccer/MyModule/Bundesliga/xG_away_all_14.xlsx
@@ -584,31 +584,31 @@
         <v>3.22803</v>
       </c>
       <c r="G3">
-        <v>3.570396000000001</v>
+        <v>3.570396</v>
       </c>
       <c r="H3">
-        <v>3.570396000000001</v>
+        <v>3.570396</v>
       </c>
       <c r="I3">
-        <v>3.570396000000001</v>
+        <v>3.570396</v>
       </c>
       <c r="J3">
-        <v>4.384367000000001</v>
+        <v>4.384367</v>
       </c>
       <c r="K3">
-        <v>4.384367000000001</v>
+        <v>4.384367</v>
       </c>
       <c r="L3">
-        <v>5.177431000000001</v>
+        <v>5.177431</v>
       </c>
       <c r="M3">
-        <v>5.177431000000001</v>
+        <v>5.177431</v>
       </c>
       <c r="N3">
-        <v>5.547954000000002</v>
+        <v>5.547954000000001</v>
       </c>
       <c r="O3">
-        <v>5.547954000000002</v>
+        <v>5.547954000000001</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -634,16 +634,16 @@
         <v>2.593058</v>
       </c>
       <c r="H4">
-        <v>3.933938</v>
+        <v>3.933937999999999</v>
       </c>
       <c r="I4">
-        <v>3.933938</v>
+        <v>3.933937999999999</v>
       </c>
       <c r="J4">
-        <v>5.260868</v>
+        <v>5.260867999999999</v>
       </c>
       <c r="K4">
-        <v>5.260868</v>
+        <v>5.260867999999999</v>
       </c>
       <c r="L4">
         <v>7.713918</v>
@@ -652,10 +652,10 @@
         <v>7.713918</v>
       </c>
       <c r="N4">
-        <v>9.647678000000001</v>
+        <v>9.647677999999999</v>
       </c>
       <c r="O4">
-        <v>9.647678000000001</v>
+        <v>9.647677999999999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -684,16 +684,16 @@
         <v>5.460507</v>
       </c>
       <c r="I5">
-        <v>6.796717</v>
+        <v>6.796716999999999</v>
       </c>
       <c r="J5">
-        <v>6.796717</v>
+        <v>6.796716999999999</v>
       </c>
       <c r="K5">
-        <v>7.685752</v>
+        <v>7.685751999999999</v>
       </c>
       <c r="L5">
-        <v>7.685752</v>
+        <v>7.685751999999999</v>
       </c>
       <c r="M5">
         <v>8.750491999999999</v>
@@ -728,16 +728,16 @@
         <v>3.37499</v>
       </c>
       <c r="H6">
-        <v>6.134080000000001</v>
+        <v>6.13408</v>
       </c>
       <c r="I6">
-        <v>6.134080000000001</v>
+        <v>6.13408</v>
       </c>
       <c r="J6">
-        <v>8.968570000000001</v>
+        <v>8.96857</v>
       </c>
       <c r="K6">
-        <v>8.968570000000001</v>
+        <v>8.96857</v>
       </c>
       <c r="L6">
         <v>10.10707</v>
@@ -872,16 +872,16 @@
         <v>3.74926</v>
       </c>
       <c r="I9">
-        <v>4.148631999999999</v>
+        <v>4.148632</v>
       </c>
       <c r="J9">
-        <v>4.148631999999999</v>
+        <v>4.148632</v>
       </c>
       <c r="K9">
-        <v>5.741161999999999</v>
+        <v>5.741162</v>
       </c>
       <c r="L9">
-        <v>5.741161999999999</v>
+        <v>5.741162</v>
       </c>
       <c r="M9">
         <v>6.580117</v>
@@ -925,13 +925,13 @@
         <v>3.363934</v>
       </c>
       <c r="K10">
-        <v>3.834039999999999</v>
+        <v>3.83404</v>
       </c>
       <c r="L10">
-        <v>3.834039999999999</v>
+        <v>3.83404</v>
       </c>
       <c r="M10">
-        <v>3.834039999999999</v>
+        <v>3.83404</v>
       </c>
       <c r="N10">
         <v>4.9918</v>
@@ -1345,22 +1345,22 @@
         <v>2.156055</v>
       </c>
       <c r="J19">
-        <v>4.818945</v>
+        <v>4.818944999999999</v>
       </c>
       <c r="K19">
-        <v>4.818945</v>
+        <v>4.818944999999999</v>
       </c>
       <c r="L19">
-        <v>6.725765000000001</v>
+        <v>6.725764999999999</v>
       </c>
       <c r="M19">
-        <v>6.725765000000001</v>
+        <v>6.725764999999999</v>
       </c>
       <c r="N19">
-        <v>7.833925000000001</v>
+        <v>7.833924999999999</v>
       </c>
       <c r="O19">
-        <v>7.833925000000001</v>
+        <v>7.833924999999999</v>
       </c>
     </row>
   </sheetData>
